--- a/data/trans_camb/P15B_3_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P15B_3_R-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-27.6789160766622</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-37.49294358362045</v>
+        <v>-37.49294358362046</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>7.148027985946896</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-71.20346354003713</v>
+        <v>-70.17167639940963</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-59.07368688474202</v>
+        <v>-61.34800651916509</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-68.8760377576463</v>
+        <v>-70.80503118434568</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>7.294101574491721</v>
+        <v>9.254921898571011</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.319933045292597</v>
+        <v>3.25574750246002</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-47.74580719093559</v>
+        <v>-44.7819206789185</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-36.20499514972287</v>
+        <v>-32.83478007960202</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-47.29918803030598</v>
+        <v>-44.55218038326351</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-8.01574708625483</v>
+        <v>-7.304038090842472</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>14.06699729100151</v>
+        <v>10.90443425874803</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-2.923482088376502</v>
+        <v>-2.785057192818011</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>22.4076037711733</v>
+        <v>22.23536166802036</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>38.09471581273953</v>
+        <v>38.32780639647693</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>19.20954357942274</v>
+        <v>17.89288921646914</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.04821043709495509</v>
+        <v>0.7792668411841757</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>14.03322822753555</v>
+        <v>17.42943295549987</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.33392768331006</v>
+        <v>3.196827211021188</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.54105267025887</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.7328920390378691</v>
+        <v>-0.7328920390378693</v>
       </c>
       <c r="F7" s="6" t="inlineStr">
         <is>
@@ -786,25 +786,25 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.952092764109204</v>
+        <v>-0.9465127605546296</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.8618110468888796</v>
+        <v>-0.8895218948056758</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.9216384039517606</v>
+        <v>-0.9355218388551264</v>
       </c>
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="n">
-        <v>-0.9074100407674225</v>
+        <v>-0.9194966636747915</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.7170984963268223</v>
+        <v>-0.7057809688341256</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.8452508210333912</v>
+        <v>-0.8550864307350811</v>
       </c>
     </row>
     <row r="9">
@@ -815,25 +815,25 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.2667599311221246</v>
+        <v>-0.1332114759897699</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.7171767315612402</v>
+        <v>0.5687950958583542</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.2552911448954841</v>
+        <v>0.146528859662918</v>
       </c>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>0.1288233071205507</v>
+        <v>0.2441922076767203</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.296877766962846</v>
+        <v>1.729566069510235</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.5974362063231416</v>
+        <v>0.4572378903349562</v>
       </c>
     </row>
     <row r="10">
@@ -872,7 +872,7 @@
         <v>3.09646778450548</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-2.24526172291851</v>
+        <v>-2.245261722918512</v>
       </c>
     </row>
     <row r="11">
@@ -883,31 +883,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.862915358206778</v>
+        <v>2.790801879359512</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>5.283888839310592</v>
+        <v>5.244575789223173</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6.971391120009815</v>
+        <v>5.981569022622126</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-55.65681817785493</v>
+        <v>-65.62896268171079</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-48.43070886346636</v>
+        <v>-45.77460394436213</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-56.78183313256714</v>
+        <v>-55.61260610618508</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-28.03359506753532</v>
+        <v>-29.6087044938509</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-20.13185113526585</v>
+        <v>-19.46385312368294</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-23.66962584789809</v>
+        <v>-28.05648355475877</v>
       </c>
     </row>
     <row r="12">
@@ -918,31 +918,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>24.29916646842851</v>
+        <v>23.54534067268934</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>40.24514781514926</v>
+        <v>41.12753506282685</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>49.54304595728988</v>
+        <v>47.96716546410134</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>18.63956047259621</v>
+        <v>18.73333898063824</v>
       </c>
       <c r="H12" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.721239938118842</v>
+        <v>4.687892745639525</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>18.56244782481173</v>
+        <v>20.68347792788207</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>12.01160197987709</v>
+        <v>10.802540639004</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.2654531844964481</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.1924812127415322</v>
+        <v>-0.1924812127415324</v>
       </c>
     </row>
     <row r="14">
@@ -1001,11 +1001,9 @@
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="n">
-        <v>-0.8429749397390442</v>
-      </c>
-      <c r="K14" s="6" t="n">
-        <v>-0.9317437860590237</v>
-      </c>
+        <v>-0.8316914386769299</v>
+      </c>
+      <c r="K14" s="6" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -1060,7 +1058,7 @@
         <v>-3.735556249736034</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>5.793540011127843</v>
+        <v>5.793540011127845</v>
       </c>
     </row>
     <row r="17">
@@ -1071,27 +1069,27 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-17.05080541353806</v>
+        <v>-16.74651767419072</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-21.68209514351021</v>
+        <v>-23.43074297811124</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-14.51444645779007</v>
+        <v>-13.82950079499278</v>
       </c>
       <c r="F17" s="5" t="inlineStr"/>
       <c r="G17" s="5" t="inlineStr"/>
       <c r="H17" s="5" t="n">
-        <v>2.371406378684179</v>
+        <v>2.146848460301511</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-19.79873688817195</v>
+        <v>-20.66802480253419</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-22.54583148018227</v>
+        <v>-26.16333319491166</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-16.13683298413056</v>
+        <v>-13.10151484315118</v>
       </c>
     </row>
     <row r="18">
@@ -1102,27 +1100,27 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>24.09660546098934</v>
+        <v>23.73548904447488</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>23.91616151562774</v>
+        <v>23.48354904791476</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>34.66515726359929</v>
+        <v>35.78102516107641</v>
       </c>
       <c r="F18" s="5" t="inlineStr"/>
       <c r="G18" s="5" t="inlineStr"/>
       <c r="H18" s="5" t="n">
-        <v>32.37033002108382</v>
+        <v>30.81903216642585</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>12.01170748010164</v>
+        <v>13.0481459546285</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>12.47841400440084</v>
+        <v>11.91972768963303</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>20.15238042876663</v>
+        <v>21.45329179588027</v>
       </c>
     </row>
     <row r="19">
@@ -1155,7 +1153,7 @@
         <v>-0.2849474410605065</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.4419300073367096</v>
+        <v>0.4419300073367098</v>
       </c>
     </row>
     <row r="20">
@@ -1166,23 +1164,23 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.5434715685661481</v>
-      </c>
-      <c r="D20" s="6" t="inlineStr"/>
+        <v>-0.5256439332576022</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5683965516123182</v>
+        <v>-0.5856125330782739</v>
       </c>
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="n">
-        <v>-0.6994037950178528</v>
-      </c>
-      <c r="J20" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-0.6999804573664278</v>
+      </c>
+      <c r="J20" s="6" t="inlineStr"/>
       <c r="K20" s="6" t="n">
-        <v>-0.6334188198197711</v>
+        <v>-0.5775807835685068</v>
       </c>
     </row>
     <row r="21">
@@ -1193,7 +1191,7 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>4.827130107283399</v>
+        <v>4.900331322969481</v>
       </c>
       <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="inlineStr"/>
@@ -1201,11 +1199,11 @@
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="n">
-        <v>3.02395731644106</v>
+        <v>3.090830088182457</v>
       </c>
       <c r="J21" s="6" t="inlineStr"/>
       <c r="K21" s="6" t="n">
-        <v>4.771057682003345</v>
+        <v>4.974114318710181</v>
       </c>
     </row>
     <row r="22">
@@ -1244,7 +1242,7 @@
         <v>-6.395255694328558</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>7.526522704415045</v>
+        <v>7.526522704415034</v>
       </c>
     </row>
     <row r="23">
@@ -1255,29 +1253,29 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-45.70788749157106</v>
+        <v>-42.30769239922493</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-39.25132289503889</v>
+        <v>-37.42961504295923</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-22.10960263329192</v>
+        <v>-19.28264487355743</v>
       </c>
       <c r="F23" s="5" t="inlineStr"/>
       <c r="G23" s="5" t="n">
-        <v>2.236257663505328</v>
+        <v>2.307073245209428</v>
       </c>
       <c r="H23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-29.92239273283651</v>
+        <v>-33.571323231668</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-25.23560802560649</v>
+        <v>-22.76061600774568</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-14.45133445826756</v>
+        <v>-16.40925593203029</v>
       </c>
     </row>
     <row r="24">
@@ -1288,29 +1286,29 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.6304024844588644</v>
+        <v>0.5018718386474407</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>9.021047546923494</v>
+        <v>7.813083686061348</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>45.92303974204567</v>
+        <v>47.74747067425849</v>
       </c>
       <c r="F24" s="5" t="inlineStr"/>
       <c r="G24" s="5" t="n">
-        <v>20.75915757083645</v>
+        <v>20.03309175877672</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>22.79928413955442</v>
+        <v>19.60097642384074</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2675818169808808</v>
+        <v>-1.319735483856412</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>7.484607806289392</v>
+        <v>8.94368282329337</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>33.29346742315163</v>
+        <v>32.07152606897922</v>
       </c>
     </row>
     <row r="25">
@@ -1347,7 +1345,7 @@
         <v>-0.3654270015267706</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.4300679683904829</v>
+        <v>0.4300679683904823</v>
       </c>
     </row>
     <row r="26">
@@ -1361,22 +1359,20 @@
         <v>-1</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.8691491907431017</v>
+        <v>-0.8504789868765866</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.6446798086631034</v>
+        <v>-0.5441190855599769</v>
       </c>
       <c r="F26" s="6" t="inlineStr"/>
       <c r="G26" s="6" t="inlineStr"/>
       <c r="H26" s="6" t="inlineStr"/>
-      <c r="I26" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="I26" s="6" t="inlineStr"/>
       <c r="J26" s="6" t="n">
-        <v>-0.8168255032774325</v>
+        <v>-0.7869509277263999</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.6399706808195276</v>
+        <v>-0.648498405932277</v>
       </c>
     </row>
     <row r="27">
@@ -1387,25 +1383,23 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.5651981997370408</v>
+        <v>0.728164049245447</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.244743528810361</v>
+        <v>0.7978869151902502</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>3.67624368627213</v>
+        <v>3.450548932860774</v>
       </c>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="inlineStr"/>
-      <c r="I27" s="6" t="n">
-        <v>0.4935099387044754</v>
-      </c>
+      <c r="I27" s="6" t="inlineStr"/>
       <c r="J27" s="6" t="n">
-        <v>1.277389772208698</v>
+        <v>1.767872490953622</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>4.587709228974037</v>
+        <v>5.077382654294803</v>
       </c>
     </row>
     <row r="28">
@@ -1455,29 +1449,29 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-56.1914747895142</v>
+        <v>-51.78883318250194</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-56.86818354084991</v>
+        <v>-62.02395437146203</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-69.5953378773348</v>
+        <v>-69.35158807988586</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-57.54867208827152</v>
+        <v>-57.13998162123411</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-27.86248116831769</v>
+        <v>-28.43481501433694</v>
       </c>
       <c r="H29" s="5" t="inlineStr"/>
       <c r="I29" s="5" t="n">
-        <v>-44.94350836902461</v>
+        <v>-43.20079502875247</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-36.17174996376668</v>
+        <v>-35.21697849094237</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-45.14616819011409</v>
+        <v>-45.55722705986114</v>
       </c>
     </row>
     <row r="30">
@@ -1488,29 +1482,29 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>33.97587149860718</v>
+        <v>30.96935796030766</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>30.15606753158886</v>
+        <v>28.71715166253951</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>22.04897010266327</v>
+        <v>15.12919824780193</v>
       </c>
       <c r="F30" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>72.17174519981502</v>
+        <v>72.67583672136877</v>
       </c>
       <c r="H30" s="5" t="inlineStr"/>
       <c r="I30" s="5" t="n">
-        <v>7.01528866370032</v>
+        <v>10.10134603841077</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>27.44021578027892</v>
+        <v>29.16179025467118</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>20.93948046540398</v>
+        <v>24.85310901330713</v>
       </c>
     </row>
     <row r="31">
@@ -1556,20 +1550,18 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.8402174458045458</v>
-      </c>
-      <c r="D32" s="6" t="n">
-        <v>-0.8827777403199135</v>
-      </c>
+        <v>-0.822784777904131</v>
+      </c>
+      <c r="D32" s="6" t="inlineStr"/>
       <c r="E32" s="6" t="inlineStr"/>
       <c r="F32" s="6" t="inlineStr"/>
       <c r="G32" s="6" t="inlineStr"/>
       <c r="H32" s="6" t="inlineStr"/>
       <c r="I32" s="6" t="n">
-        <v>-0.9060783542124049</v>
+        <v>-0.9086403425731646</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.8322232502861964</v>
+        <v>-0.8285932270612431</v>
       </c>
       <c r="K32" s="6" t="inlineStr"/>
     </row>
@@ -1581,7 +1573,7 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>4.199767077560224</v>
+        <v>2.491795387883065</v>
       </c>
       <c r="D33" s="6" t="inlineStr"/>
       <c r="E33" s="6" t="inlineStr"/>
@@ -1589,10 +1581,10 @@
       <c r="G33" s="6" t="inlineStr"/>
       <c r="H33" s="6" t="inlineStr"/>
       <c r="I33" s="6" t="n">
-        <v>1.167299625624251</v>
+        <v>1.839788090970394</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>3.276440357211793</v>
+        <v>3.298891344553382</v>
       </c>
       <c r="K33" s="6" t="inlineStr"/>
     </row>
@@ -1643,31 +1635,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-75.77090562527337</v>
+        <v>-79.76155841313843</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-81.57064310746841</v>
+        <v>-85.46262415792563</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-71.93964477486583</v>
+        <v>-71.8782171883414</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-26.27754607104017</v>
+        <v>-26.44584531389799</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-38.72722070371545</v>
+        <v>-38.96552099152119</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-39.25835573086069</v>
+        <v>-36.89213405996504</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-45.65077190757186</v>
+        <v>-46.00566023845907</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-53.19988556554316</v>
+        <v>-55.18639528760281</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-49.55371269616001</v>
+        <v>-45.75665228338978</v>
       </c>
     </row>
     <row r="36">
@@ -1678,31 +1670,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>-4.011326131313877</v>
+        <v>-8.093332880787186</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-10.52708429412595</v>
+        <v>-13.03586628900633</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-2.056786812666951</v>
+        <v>0.8861942615499184</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>17.77379058035044</v>
+        <v>16.74353599703901</v>
       </c>
       <c r="G36" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>3.747443640524664</v>
+        <v>3.692709934598478</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>3.68014852302307</v>
+        <v>3.740576957654226</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-7.811803099295823</v>
+        <v>-8.500987382306253</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>0.9243193088265121</v>
+        <v>1.37494332520054</v>
       </c>
     </row>
     <row r="37">
@@ -1748,25 +1740,25 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.8738535110959075</v>
+        <v>-0.8874254376993029</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.9463664204941812</v>
+        <v>-0.952401144661563</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.8390564203420471</v>
+        <v>-0.8474768390354999</v>
       </c>
       <c r="F38" s="6" t="inlineStr"/>
       <c r="G38" s="6" t="inlineStr"/>
       <c r="H38" s="6" t="inlineStr"/>
       <c r="I38" s="6" t="n">
-        <v>-0.8274824335861563</v>
+        <v>-0.8340815401210292</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.9608593674128439</v>
+        <v>-0.9650992805048875</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.8525242388493872</v>
+        <v>-0.8471981117571319</v>
       </c>
     </row>
     <row r="39">
@@ -1777,25 +1769,25 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>-0.1034989592869198</v>
+        <v>-0.2297231132902442</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>-0.3064673659650559</v>
+        <v>-0.3572832255555221</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.0249444130554273</v>
+        <v>0.03394556232674349</v>
       </c>
       <c r="F39" s="6" t="inlineStr"/>
       <c r="G39" s="6" t="inlineStr"/>
       <c r="H39" s="6" t="inlineStr"/>
       <c r="I39" s="6" t="n">
-        <v>0.4093137172611013</v>
+        <v>0.3064347043277674</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.3957301124781126</v>
+        <v>-0.3051972516518883</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.1256196377599642</v>
+        <v>0.4586769539182557</v>
       </c>
     </row>
     <row r="40">
@@ -1825,7 +1817,7 @@
         <v>-19.77138163399313</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>-13.7739146181313</v>
+        <v>-13.77391461813129</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>-6.330761278443409</v>
@@ -1845,31 +1837,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-19.62190754835483</v>
+        <v>-17.82124901974363</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-46.54241987632094</v>
+        <v>-46.05355485357026</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-50.15764965400897</v>
+        <v>-47.29522194789785</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-39.78499661559945</v>
+        <v>-42.97424987819267</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-43.57905271665557</v>
+        <v>-45.59180864158649</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-38.37787395850364</v>
+        <v>-37.09702708411692</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-24.07587705251505</v>
+        <v>-24.8600506202193</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-40.39844271102154</v>
+        <v>-40.53773935436119</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-36.16306541404723</v>
+        <v>-39.89495703111488</v>
       </c>
     </row>
     <row r="42">
@@ -1880,31 +1872,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>26.04525511415073</v>
+        <v>27.08893664731909</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.3658671272487054</v>
+        <v>1.430649546177785</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-4.663185898307789</v>
+        <v>-5.342263323060557</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>3.752779632224256</v>
+        <v>2.63511981472961</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-0.7809577114254229</v>
+        <v>-1.345855109324937</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>4.012304852928791</v>
+        <v>5.283149392482755</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>8.745438617360954</v>
+        <v>9.377433600936778</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-6.778573921468708</v>
+        <v>-6.331243528423132</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-7.297560748186487</v>
+        <v>-7.884892532239776</v>
       </c>
     </row>
     <row r="43">
@@ -1930,7 +1922,7 @@
         <v>-0.8408331456772464</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>-0.5857741341020321</v>
+        <v>-0.5857741341020318</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>-0.1947204986583258</v>
@@ -1950,29 +1942,29 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.3742785055155868</v>
+        <v>-0.3406127884376515</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.9002049026589616</v>
+        <v>-0.9105045730375898</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.9005476133787442</v>
+        <v>-0.8940750200050404</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.936163617295842</v>
+        <v>-0.9528978662301303</v>
       </c>
       <c r="G44" s="6" t="inlineStr"/>
       <c r="H44" s="6" t="n">
-        <v>-0.8840163643283592</v>
+        <v>-0.8801162077866904</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.5199905973768615</v>
+        <v>-0.5177600568274506</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.9067860375812357</v>
+        <v>-0.9137406689928255</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.8284053596665513</v>
+        <v>-0.837058979088201</v>
       </c>
     </row>
     <row r="45">
@@ -1983,29 +1975,29 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.083776499731569</v>
+        <v>1.455251400579803</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.2586757268568228</v>
+        <v>0.1757106158938936</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.06508637653811176</v>
+        <v>-0.1479403041937561</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.232284221972753</v>
+        <v>0.8072078859524005</v>
       </c>
       <c r="G45" s="6" t="inlineStr"/>
       <c r="H45" s="6" t="n">
-        <v>0.9664140199779423</v>
+        <v>0.9832110064755202</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.4310241066531749</v>
+        <v>0.4945336107805773</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.2336751657607898</v>
+        <v>-0.2349251099745925</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.2681206636596619</v>
+        <v>-0.292860279473261</v>
       </c>
     </row>
     <row r="46">
@@ -2055,31 +2047,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-38.16651412410521</v>
+        <v>-38.63153200268917</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-43.41146040471571</v>
+        <v>-43.01056499371133</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-25.18088123082303</v>
+        <v>-24.26431915740677</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-4.282801695435153</v>
+        <v>-4.333862255638911</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-12.56172335277326</v>
+        <v>-13.02626249423098</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-6.271223694586321</v>
+        <v>-6.241590993424576</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-19.25256647794654</v>
+        <v>-17.40819664619995</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-25.78139937158264</v>
+        <v>-24.14100510123219</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-10.91537963339901</v>
+        <v>-10.86759587614506</v>
       </c>
     </row>
     <row r="48">
@@ -2090,31 +2082,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>3.142620597015617</v>
+        <v>6.210011500089459</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-5.087006346271179</v>
+        <v>-3.502986181276193</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>26.94592038240969</v>
+        <v>26.69325260296585</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>34.75485190484859</v>
+        <v>32.84078722357602</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>8.241620645193519</v>
+        <v>8.185747556429753</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>23.39465102346984</v>
+        <v>24.67938741962639</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>9.775885201368823</v>
+        <v>10.12475929535722</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-0.7216027102004628</v>
+        <v>-0.9921920498067079</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>18.02541534657887</v>
+        <v>19.71718717575519</v>
       </c>
     </row>
     <row r="49">
@@ -2166,19 +2158,19 @@
         <v>-1</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.6620993096254916</v>
+        <v>-0.6316486147569825</v>
       </c>
       <c r="F50" s="6" t="inlineStr"/>
       <c r="G50" s="6" t="inlineStr"/>
       <c r="H50" s="6" t="inlineStr"/>
       <c r="I50" s="6" t="n">
-        <v>-0.8594038962982848</v>
+        <v>-0.859911180667861</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-1</v>
+        <v>-0.936122138065513</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.5098060732130062</v>
+        <v>-0.5069896599803578</v>
       </c>
     </row>
     <row r="51">
@@ -2189,25 +2181,25 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.3504733836940227</v>
+        <v>0.6082492530514716</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.0004518726197023891</v>
+        <v>0.07560091797298779</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>1.8746603976505</v>
+        <v>1.952712715566826</v>
       </c>
       <c r="F51" s="6" t="inlineStr"/>
       <c r="G51" s="6" t="inlineStr"/>
       <c r="H51" s="6" t="inlineStr"/>
       <c r="I51" s="6" t="n">
-        <v>1.539609792097224</v>
+        <v>1.479994988694177</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.4347701028840207</v>
+        <v>0.1114217437272314</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>2.115740652229755</v>
+        <v>2.531981839881158</v>
       </c>
     </row>
     <row r="52">
@@ -2228,7 +2220,7 @@
         <v>-17.15020112432522</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>-9.575901295614766</v>
+        <v>-9.575901295614772</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>-4.849381659781986</v>
@@ -2257,31 +2249,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-20.40921273872521</v>
+        <v>-19.95567750287934</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-27.50810459682201</v>
+        <v>-26.79069784339559</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-20.53945579062521</v>
+        <v>-20.86458673108203</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-13.46534848631506</v>
+        <v>-13.44036287664912</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-11.09981349430547</v>
+        <v>-10.96756351690562</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-11.32108019960937</v>
+        <v>-11.02349508568275</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>-14.90219360866416</v>
+        <v>-15.5865378855076</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-18.60897311716856</v>
+        <v>-18.33705507040682</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-14.60201321101145</v>
+        <v>-15.15422183593438</v>
       </c>
     </row>
     <row r="54">
@@ -2292,31 +2284,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>-0.2022318294924373</v>
+        <v>-1.341927186224041</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>-7.649850593220557</v>
+        <v>-6.548574761850172</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>0.6721315129983543</v>
+        <v>1.247502892506335</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>1.012510131180195</v>
+        <v>1.083548617903139</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>3.310077187492659</v>
+        <v>3.313219019436288</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>2.932057745026327</v>
+        <v>3.461031700676873</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>-1.755865417210037</v>
+        <v>-1.800787126786703</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>-5.131616708902043</v>
+        <v>-5.794970448619741</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>-1.450824508757808</v>
+        <v>-1.134887753751064</v>
       </c>
     </row>
     <row r="55">
@@ -2333,7 +2325,7 @@
         <v>-0.5344755080836856</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>-0.2984270955909444</v>
+        <v>-0.2984270955909446</v>
       </c>
       <c r="F55" s="6" t="n">
         <v>-0.4794689030787955</v>
@@ -2362,31 +2354,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.5108445388490752</v>
+        <v>-0.5207825382904867</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.7035735003660327</v>
+        <v>-0.7057536117783039</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.5292278098491162</v>
+        <v>-0.5521266338142355</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.7939768261919584</v>
+        <v>-0.8036901782591261</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.6711783996992151</v>
+        <v>-0.7234786462889019</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.6875007984092519</v>
+        <v>-0.6830553291012763</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>-0.5368601899088573</v>
+        <v>-0.5585593681243382</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.6662882988840105</v>
+        <v>-0.6567115486927043</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.5482703146512627</v>
+        <v>-0.5490245131717368</v>
       </c>
     </row>
     <row r="57">
@@ -2397,31 +2389,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.01578920089952038</v>
+        <v>-0.04968700965529914</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>-0.2737202846846338</v>
+        <v>-0.2609179519627544</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.0354033941866285</v>
+        <v>0.0705673970087769</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.3155262866330699</v>
+        <v>0.3008771483069139</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.6691252160170947</v>
+        <v>0.6437910598764823</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.5852012178386889</v>
+        <v>0.7695310640450918</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>-0.08074468347555895</v>
+        <v>-0.1020333192478772</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>-0.2877110748578448</v>
+        <v>-0.2745018252124504</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>-0.08014938142980041</v>
+        <v>-0.0569697846162367</v>
       </c>
     </row>
     <row r="58">
